--- a/Computational_Data/Overview_Energies/F_to_A_Reaction_Energy.xlsx
+++ b/Computational_Data/Overview_Energies/F_to_A_Reaction_Energy.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/Overview_Energies/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADAFFDF-B181-EA4F-8839-EDEE6DEF685B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="3360" windowWidth="20700" windowHeight="12260" tabRatio="500"/>
+    <workbookView xWindow="1160" yWindow="1760" windowWidth="20700" windowHeight="12260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,9 +45,6 @@
     <t>Thermal Correction to Gibbs Free Energy</t>
   </si>
   <si>
-    <t>Relative Energy / kcal/mol</t>
-  </si>
-  <si>
     <t>[A-Mono]S_0</t>
   </si>
   <si>
@@ -69,16 +72,19 @@
     <t>O2</t>
   </si>
   <si>
-    <t>Relative Energy + relative energy of [A]S_0 -&gt; 2 [F]S_0 + O2 / kcal/mol</t>
-  </si>
-  <si>
     <t>Relative Energy of 2 H2O -&gt; O2 + 2 H2</t>
+  </si>
+  <si>
+    <t>Relative Energy / kJ/mol</t>
+  </si>
+  <si>
+    <t>Relative Energy + relative energy of [A]S_0 -&gt; 2 [F]S_0 + O2 / kJ/mol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -141,6 +147,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -465,16 +479,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,18 +508,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>-1555.00717846</v>
@@ -520,16 +534,16 @@
         <v>0.49510999999999999</v>
       </c>
       <c r="G2">
-        <f>((D2+D6)-(D4+D5))*627.5095</f>
-        <v>13.167115259641692</v>
+        <f>((D2+D6)-(D4+D5))*2625.5</f>
+        <v>55.091215534090338</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>-3110.0305337999998</v>
@@ -544,20 +558,20 @@
         <v>1.0192289999999999</v>
       </c>
       <c r="G3">
-        <f>((D3+2*D6)-(2*D4+2*D5))*627.5095</f>
-        <v>34.386507724413704</v>
+        <f>((D3+2*D6)-(2*D4+2*D5))*2625.5</f>
+        <v>143.87316212814017</v>
       </c>
       <c r="H3">
-        <f>G3+82.728</f>
-        <v>117.1145077244137</v>
+        <f>G3+(82.728*4.184)</f>
+        <v>490.00711412814013</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>-1479.8091329599999</v>
@@ -572,12 +586,12 @@
         <v>0.49121599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>-76.386355991900004</v>
@@ -592,12 +606,12 @@
         <v>3.8210000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>-1.1658463589600001</v>
@@ -612,15 +626,15 @@
         <v>-1.554E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>-150.22761414999999</v>
@@ -635,8 +649,8 @@
         <v>-1.6021000000000001E-2</v>
       </c>
       <c r="G7">
-        <f>((D7+2*D6)-(2*D5))*627.5095</f>
-        <v>117.11468073881674</v>
+        <f>((D7+2*D6)-(2*D5))*2625.5</f>
+        <v>490.00787124300649</v>
       </c>
     </row>
   </sheetData>
